--- a/EXCEL/Videotron/datavideotron.xlsx
+++ b/EXCEL/Videotron/datavideotron.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Erie/Downloads/02649b5a-a19e-4910-bfcc-d7f2f5d6d2a0_Export-5f9769a1-83fb-4fc7-9422-0181fa844e86/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Erie/Documents/GitHub/Data-Analyst-Portfolio/EXCEL/Videotron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B3D08B70-5A76-C44D-AF92-EB5E8F3BC0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC4BF37-B2B9-5242-9C0D-B955DD1E8CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">unpivot_loc_data!$A$1:$J$488</definedName>
+    <definedName name="Slicer_Free_Commercial">#N/A</definedName>
     <definedName name="Slicer_Value">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,6 +33,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="743">
   <si>
     <t>Name</t>
   </si>
@@ -4246,7 +4248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Commercial</c:v>
+                  <c:v>Group</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4263,187 +4265,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$5:$A$10</c:f>
+              <c:f>Sheet4!$A$5:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Serang</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Tegal</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Subang</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Cibinong</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sentul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Garut</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Soreang</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>Karawang</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Tasikmalaya</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
+                <c:pt idx="9">
+                  <c:v>Lembang</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bekasi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pandeglang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$5:$B$10</c:f>
+              <c:f>Sheet4!$B$5:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3727-1544-B1BA-9848CD92E749}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Free</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-3727-1544-B1BA-9848CD92E749}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Group</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$D$5:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -4459,12 +4328,33 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-3727-1544-B1BA-9848CD92E749}"/>
+              <c16:uniqueId val="{00000000-3727-1544-B1BA-9848CD92E749}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5002,7 +4892,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Commercial</c:v>
+                  <c:v>Group</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5019,187 +4909,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$6:$A$11</c:f>
+              <c:f>Sheet5!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Serang</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Tegal</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Subang</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cibinong</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sentul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Garut</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Soreang</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>Karawang</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Tasikmalaya</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Subang</c:v>
+                <c:pt idx="9">
+                  <c:v>Lembang</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
+                <c:pt idx="10">
+                  <c:v>Bekasi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pandeglang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$6:$B$11</c:f>
+              <c:f>Sheet5!$B$6:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A538-3A40-B8EA-E64BA591BE0A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$C$4:$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Free</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$C$6:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A538-3A40-B8EA-E64BA591BE0A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$D$4:$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Group</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$D$6:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -5215,12 +4972,33 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-A538-3A40-B8EA-E64BA591BE0A}"/>
+              <c16:uniqueId val="{00000000-A538-3A40-B8EA-E64BA591BE0A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5943,10 +5721,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6097,7 +5872,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Commercial</c:v>
+                  <c:v>Group</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6172,303 +5947,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$6:$A$11</c:f>
+              <c:f>Sheet5!$A$6:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Serang</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Tegal</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Subang</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cibinong</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sentul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Garut</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Soreang</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>Karawang</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Tasikmalaya</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Subang</c:v>
+                <c:pt idx="9">
+                  <c:v>Lembang</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
+                <c:pt idx="10">
+                  <c:v>Bekasi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pandeglang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$6:$B$11</c:f>
+              <c:f>Sheet5!$B$6:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C86A-D943-8FB7-0BB0A477EDA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$C$4:$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Free</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$C$6:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-C86A-D943-8FB7-0BB0A477EDA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$D$4:$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Group</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$6:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$D$6:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -6484,12 +6010,33 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-C86A-D943-8FB7-0BB0A477EDA6}"/>
+              <c16:uniqueId val="{00000000-C86A-D943-8FB7-0BB0A477EDA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8284,10 +7831,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8438,7 +7982,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Commercial</c:v>
+                  <c:v>Group</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8513,303 +8057,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$5:$A$10</c:f>
+              <c:f>Sheet4!$A$5:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Serang</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Tegal</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Subang</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Cibinong</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sentul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Garut</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Soreang</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>Karawang</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Tasikmalaya</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
+                <c:pt idx="9">
+                  <c:v>Lembang</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bekasi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pandeglang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$5:$B$10</c:f>
+              <c:f>Sheet4!$B$5:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04ED-844C-B09B-664312A6BDCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Free</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-04ED-844C-B09B-664312A6BDCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Group</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tegal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Subang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Soreang</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Tasikmalaya</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Serang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$D$5:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -8825,12 +8120,33 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-04ED-844C-B09B-664312A6BDCA}"/>
+              <c16:uniqueId val="{00000000-04ED-844C-B09B-664312A6BDCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11436,15 +10752,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>82548</xdr:rowOff>
+      <xdr:colOff>161572</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:colOff>129822</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121355</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -11480,8 +10796,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="133350" y="1662992"/>
+              <a:off x="161572" y="1140881"/>
               <a:ext cx="1633361" cy="3919363"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56443</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Free/Commercial">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFAB49A-4659-5094-A4AA-6DA090966B90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Free/Commercial"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="114300" y="5071532"/>
+              <a:ext cx="1720144" cy="1504244"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18520,7 +17914,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
-  <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:C17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -18531,8 +17925,8 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -18540,13 +17934,13 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="24">
-        <item h="1" x="3"/>
-        <item h="1" x="7"/>
-        <item h="1" x="9"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="8"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="8"/>
         <item x="10"/>
         <item x="4"/>
         <item x="5"/>
@@ -18579,7 +17973,10 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="13">
+    <i>
+      <x v="7"/>
+    </i>
     <i>
       <x v="11"/>
     </i>
@@ -18587,13 +17984,31 @@
       <x v="9"/>
     </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -18602,13 +18017,7 @@
   <colFields count="1">
     <field x="7"/>
   </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="2">
     <i>
       <x v="2"/>
     </i>
@@ -18756,8 +18165,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A4:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A4:C18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -18934,8 +18343,8 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -18954,13 +18363,13 @@
         <item m="1" x="19"/>
         <item m="1" x="20"/>
         <item m="1" x="21"/>
-        <item h="1" x="3"/>
-        <item h="1" x="7"/>
-        <item h="1" x="9"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="8"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="8"/>
         <item x="10"/>
         <item x="4"/>
         <item x="5"/>
@@ -18982,21 +18391,42 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="13">
+    <i>
+      <x v="18"/>
+    </i>
     <i>
       <x v="22"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
+      <x v="14"/>
+    </i>
+    <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -19005,13 +18435,7 @@
   <colFields count="1">
     <field x="7"/>
   </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="2">
     <i>
       <x v="2"/>
     </i>
@@ -19297,13 +18721,13 @@
   <data>
     <tabular pivotCacheId="1590784516">
       <items count="23">
-        <i x="3"/>
-        <i x="7"/>
-        <i x="9"/>
-        <i x="2"/>
-        <i x="0"/>
-        <i x="6"/>
-        <i x="8"/>
+        <i x="3" s="1"/>
+        <i x="7" s="1"/>
+        <i x="9" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="6" s="1"/>
+        <i x="8" s="1"/>
         <i x="10" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
@@ -19326,9 +18750,28 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Free_Commercial" sourceName="Free/Commercial">
+  <pivotTables>
+    <pivotTable tabId="8" name="PivotTable10"/>
+    <pivotTable tabId="9" name="PivotTable11"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1590784516">
+      <items count="3">
+        <i x="1"/>
+        <i x="0"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Value" cache="Slicer_Value" caption="Value" rowHeight="251883"/>
+  <slicer name="Free/Commercial" cache="Slicer_Free_Commercial" caption="Free/Commercial" rowHeight="251883"/>
 </slicers>
 </file>
 
@@ -19650,7 +19093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E10"/>
+  <dimension ref="A3:C17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -19660,7 +19103,7 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
@@ -19676,7 +19119,7 @@
     <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>734</v>
       </c>
@@ -19684,123 +19127,158 @@
         <v>732</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>729</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>702</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>702</v>
-      </c>
-      <c r="E4" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B17" s="1">
         <v>36</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C17" s="1">
         <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="B10" s="1">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>140</v>
-      </c>
-      <c r="D10" s="1">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -19811,9 +19289,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E11"/>
+  <dimension ref="A4:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -19821,10 +19299,11 @@
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>733</v>
       </c>
@@ -19832,123 +19311,158 @@
         <v>732</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>729</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>702</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11.75</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="D10" s="1">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="1">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="B11" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>36.5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>73</v>
+      <c r="B18" s="1">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -19961,8 +19475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
